--- a/etc/프로젝트관리.xlsx
+++ b/etc/프로젝트관리.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\이전수업자료\2_AI\lecNote\project(1stPersonal)_git\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ai\lecNote\10_1stProject\etc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{583FAC04-E97F-4733-958C-7999F197B175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76EC40C3-31AA-425F-A977-02A26C5A5F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-60" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt Chart" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>기획 및 설계</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>완료</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주제선정 및 요구사항, 일정관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,10 +103,6 @@
   </si>
   <si>
     <t>전반</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계획</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -119,47 +111,75 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/18(토)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/13(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/14(화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/15(수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/16(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/17(금)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/20(월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/21(화)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/22(수)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/23(목)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/24(금)</t>
+    <t>12/19(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/20(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/21(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/22(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/23(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/24(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/25(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/26(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/27(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/28(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/29(월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/30'(화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/31(수)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/1(목)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2(금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3(토)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4(일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'1/5(월)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +190,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,14 +219,6 @@
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFA47160"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -294,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -371,17 +383,6 @@
       <right style="thin">
         <color rgb="FFC00000"/>
       </right>
-      <top style="thin">
-        <color theme="0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFC00000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -449,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,98 +472,89 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -910,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q58"/>
+  <dimension ref="A1:V58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.25" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
@@ -922,158 +914,205 @@
     <col min="2" max="2" width="0.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="26.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="0.75" style="1" customWidth="1"/>
-    <col min="5" max="15" width="5.25" style="1" customWidth="1"/>
-    <col min="16" max="16" width="0.75" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="2.25" style="1"/>
+    <col min="5" max="15" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.25" style="1" customWidth="1"/>
+    <col min="22" max="22" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="2.25" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="10"/>
+    </row>
+    <row r="5" spans="1:22" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="14"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="11"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19"/>
+      <c r="E6" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="16"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="2"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="24" t="s">
+      <c r="G7" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="I7" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="25" t="s">
+      <c r="J7" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="K7" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="L7" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="J7" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="25" t="s">
+      <c r="M7" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="25" t="s">
+      <c r="N7" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="25" t="s">
+      <c r="O7" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="25" t="s">
+      <c r="P7" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="25" t="s">
+      <c r="Q7" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="R7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="V7" s="21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1088,13 +1127,18 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
-      <c r="P8" s="12"/>
+      <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="11"/>
+    </row>
+    <row r="9" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>0</v>
       </c>
       <c r="D9" s="5"/>
@@ -1109,11 +1153,16 @@
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
-      <c r="P9" s="12"/>
+      <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="11"/>
+    </row>
+    <row r="10" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11"/>
       <c r="B10" s="2"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1128,17 +1177,22 @@
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
-      <c r="P10" s="12"/>
+      <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="33" t="s">
-        <v>3</v>
+      <c r="C11" s="32" t="s">
+        <v>2</v>
       </c>
       <c r="D11" s="6"/>
-      <c r="E11" s="20"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1149,13 +1203,18 @@
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
-      <c r="P11" s="12"/>
+      <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="11"/>
+    </row>
+    <row r="12" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="33"/>
+      <c r="C12" s="32"/>
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
       <c r="F12" s="2"/>
@@ -1168,11 +1227,16 @@
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
-      <c r="P12" s="12"/>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -1187,19 +1251,24 @@
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
-      <c r="P13" s="12"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
-    </row>
-    <row r="14" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="11"/>
+    </row>
+    <row r="14" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="26" t="s">
-        <v>4</v>
+      <c r="C14" s="27" t="s">
+        <v>3</v>
       </c>
       <c r="D14" s="6"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
@@ -1208,13 +1277,18 @@
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
-      <c r="P14" s="12"/>
+      <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="11"/>
+    </row>
+    <row r="15" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="26"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="6"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1227,11 +1301,16 @@
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
-      <c r="P15" s="12"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="11"/>
+    </row>
+    <row r="16" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -1246,14 +1325,19 @@
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
-      <c r="P16" s="12"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="11"/>
+    </row>
+    <row r="17" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="9" t="s">
-        <v>6</v>
+      <c r="C17" s="8" t="s">
+        <v>5</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1267,36 +1351,36 @@
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
-      <c r="P17" s="12"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="11"/>
+    </row>
+    <row r="18" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="35" t="s">
-        <v>9</v>
+      <c r="C18" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="D18" s="6"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="12"/>
+      <c r="E18" s="18"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="11"/>
+    </row>
+    <row r="19" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="35"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1307,11 +1391,16 @@
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
-      <c r="P19" s="12"/>
+      <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-    </row>
-    <row r="20" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="11"/>
+    </row>
+    <row r="20" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -1326,36 +1415,46 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
-      <c r="P20" s="12"/>
+      <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="11"/>
+    </row>
+    <row r="21" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="35" t="s">
-        <v>10</v>
+      <c r="C21" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="D21" s="6"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="20"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
-      <c r="P21" s="12"/>
+      <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="11"/>
+    </row>
+    <row r="22" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="35"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="4"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -1366,11 +1465,16 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
-      <c r="P22" s="12"/>
+      <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="11"/>
+    </row>
+    <row r="23" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -1385,36 +1489,46 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
-      <c r="P23" s="12"/>
+      <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="11"/>
+    </row>
+    <row r="24" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="35" t="s">
-        <v>11</v>
+      <c r="C24" s="25" t="s">
+        <v>10</v>
       </c>
       <c r="D24" s="6"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="18"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="20"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="12"/>
+      <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="11"/>
+    </row>
+    <row r="25" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="35"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="4"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1424,12 +1538,17 @@
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="12"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="11"/>
+    </row>
+    <row r="26" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1444,36 +1563,46 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
-      <c r="P26" s="12"/>
+      <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="11"/>
+    </row>
+    <row r="27" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="35" t="s">
-        <v>5</v>
+      <c r="C27" s="25" t="s">
+        <v>4</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="20"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
-      <c r="P27" s="12"/>
+      <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="11"/>
+    </row>
+    <row r="28" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
       <c r="B28" s="2"/>
-      <c r="C28" s="35"/>
+      <c r="C28" s="25"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="4"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -1484,11 +1613,16 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
-      <c r="P28" s="12"/>
+      <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
-    </row>
-    <row r="29" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="11"/>
+    </row>
+    <row r="29" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
@@ -1503,14 +1637,19 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="12"/>
+      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
-    </row>
-    <row r="30" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="11"/>
+    </row>
+    <row r="30" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="9" t="s">
-        <v>7</v>
+      <c r="C30" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1524,36 +1663,46 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="12"/>
+      <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
-    </row>
-    <row r="31" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="11"/>
+    </row>
+    <row r="31" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="11"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="36" t="s">
-        <v>12</v>
+      <c r="C31" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="12"/>
+      <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
-    </row>
-    <row r="32" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="11"/>
+    </row>
+    <row r="32" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="11"/>
       <c r="B32" s="2"/>
-      <c r="C32" s="36"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -1564,11 +1713,16 @@
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="12"/>
+      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
-    </row>
-    <row r="33" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="11"/>
+    </row>
+    <row r="33" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
       <c r="B33" s="2"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
@@ -1583,36 +1737,46 @@
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="12"/>
+      <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
-    </row>
-    <row r="34" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="11"/>
+    </row>
+    <row r="34" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="11"/>
       <c r="B34" s="2"/>
-      <c r="C34" s="36" t="s">
-        <v>13</v>
+      <c r="C34" s="26" t="s">
+        <v>12</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="12"/>
+      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
-    </row>
-    <row r="35" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="11"/>
+    </row>
+    <row r="35" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="11"/>
       <c r="B35" s="2"/>
-      <c r="C35" s="36"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -1623,11 +1787,16 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="12"/>
+      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
-    </row>
-    <row r="36" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="11"/>
+    </row>
+    <row r="36" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="11"/>
       <c r="B36" s="2"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
@@ -1642,14 +1811,19 @@
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="12"/>
+      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
-    </row>
-    <row r="37" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="11"/>
+    </row>
+    <row r="37" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="11"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="9" t="s">
-        <v>8</v>
+      <c r="C37" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1663,34 +1837,44 @@
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="12"/>
+      <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
-    </row>
-    <row r="38" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="11"/>
+    </row>
+    <row r="38" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="11"/>
       <c r="B38" s="2"/>
-      <c r="C38" s="34" t="s">
-        <v>14</v>
+      <c r="C38" s="23" t="s">
+        <v>13</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
       <c r="J38" s="2"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="12"/>
+      <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
-    </row>
-    <row r="39" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="11"/>
+    </row>
+    <row r="39" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="11"/>
       <c r="B39" s="2"/>
-      <c r="C39" s="34"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="6"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1703,11 +1887,16 @@
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="12"/>
+      <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
-    </row>
-    <row r="40" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="11"/>
+    </row>
+    <row r="40" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="11"/>
       <c r="B40" s="2"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
@@ -1722,34 +1911,41 @@
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="12"/>
+      <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
-    </row>
-    <row r="41" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="11"/>
+    </row>
+    <row r="41" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="11"/>
       <c r="B41" s="2"/>
-      <c r="C41" s="34" t="s">
-        <v>17</v>
+      <c r="C41" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="12"/>
+      <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
-    </row>
-    <row r="42" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="11"/>
+    </row>
+    <row r="42" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="11"/>
       <c r="B42" s="2"/>
-      <c r="C42" s="34"/>
+      <c r="C42" s="23"/>
       <c r="D42" s="6"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1762,11 +1958,16 @@
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="12"/>
+      <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
-    </row>
-    <row r="43" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="11"/>
+    </row>
+    <row r="43" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="11"/>
       <c r="B43" s="2"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1781,14 +1982,19 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
-      <c r="P43" s="12"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
-    </row>
-    <row r="44" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="11"/>
+    </row>
+    <row r="44" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="11"/>
       <c r="B44" s="2"/>
-      <c r="C44" s="34" t="s">
-        <v>18</v>
+      <c r="C44" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="2"/>
@@ -1796,19 +2002,24 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
-      <c r="P44" s="12"/>
+      <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
-    </row>
-    <row r="45" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="11"/>
+    </row>
+    <row r="45" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="11"/>
       <c r="B45" s="2"/>
-      <c r="C45" s="34"/>
+      <c r="C45" s="23"/>
       <c r="D45" s="6"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1821,11 +2032,16 @@
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
-      <c r="P45" s="12"/>
+      <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
-    </row>
-    <row r="46" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="11"/>
+    </row>
+    <row r="46" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="11"/>
       <c r="B46" s="2"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -1840,14 +2056,19 @@
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
-      <c r="P46" s="12"/>
+      <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
-    </row>
-    <row r="47" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="11"/>
+    </row>
+    <row r="47" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="11"/>
       <c r="B47" s="2"/>
-      <c r="C47" s="34" t="s">
-        <v>19</v>
+      <c r="C47" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="2"/>
@@ -1855,19 +2076,24 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-      <c r="J47" s="20"/>
+      <c r="J47" s="2"/>
       <c r="K47" s="2"/>
       <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="12"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="2"/>
       <c r="Q47" s="2"/>
-    </row>
-    <row r="48" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="11"/>
+    </row>
+    <row r="48" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="11"/>
       <c r="B48" s="2"/>
-      <c r="C48" s="34"/>
+      <c r="C48" s="23"/>
       <c r="D48" s="6"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1880,11 +2106,16 @@
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="12"/>
+      <c r="P48" s="2"/>
       <c r="Q48" s="2"/>
-    </row>
-    <row r="49" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="11"/>
+    </row>
+    <row r="49" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="11"/>
       <c r="B49" s="2"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -1899,14 +2130,19 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
-      <c r="P49" s="12"/>
+      <c r="P49" s="2"/>
       <c r="Q49" s="2"/>
-    </row>
-    <row r="50" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="11"/>
+    </row>
+    <row r="50" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="11"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="34" t="s">
-        <v>16</v>
+      <c r="C50" s="23" t="s">
+        <v>15</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="2"/>
@@ -1914,19 +2150,24 @@
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-      <c r="J50" s="20"/>
+      <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
-      <c r="P50" s="12"/>
-      <c r="Q50" s="2"/>
-    </row>
-    <row r="51" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
+      <c r="P50" s="18"/>
+      <c r="Q50" s="18"/>
+      <c r="R50" s="18"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="11"/>
+    </row>
+    <row r="51" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="34"/>
+      <c r="C51" s="23"/>
       <c r="D51" s="6"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -1939,11 +2180,16 @@
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
-      <c r="P51" s="12"/>
+      <c r="P51" s="2"/>
       <c r="Q51" s="2"/>
-    </row>
-    <row r="52" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="11"/>
+    </row>
+    <row r="52" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="11"/>
       <c r="B52" s="2"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1958,14 +2204,19 @@
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
-      <c r="P52" s="12"/>
+      <c r="P52" s="2"/>
       <c r="Q52" s="2"/>
-    </row>
-    <row r="53" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="18"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="18"/>
+      <c r="V52" s="11"/>
+    </row>
+    <row r="53" spans="1:22" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="11"/>
       <c r="B53" s="2"/>
-      <c r="C53" s="37" t="s">
-        <v>15</v>
+      <c r="C53" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="2"/>
@@ -1979,13 +2230,18 @@
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
-      <c r="P53" s="12"/>
+      <c r="P53" s="2"/>
       <c r="Q53" s="2"/>
-    </row>
-    <row r="54" spans="1:17" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="11"/>
+    </row>
+    <row r="54" spans="1:22" ht="6.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="11"/>
       <c r="B54" s="2"/>
-      <c r="C54" s="37"/>
+      <c r="C54" s="24"/>
       <c r="D54" s="3"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -1998,29 +2254,39 @@
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
-      <c r="P54" s="12"/>
+      <c r="P54" s="2"/>
       <c r="Q54" s="2"/>
-    </row>
-    <row r="55" spans="1:17" ht="3" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
-      <c r="B55" s="13"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="11"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="11"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="2"/>
-    </row>
-    <row r="56" spans="1:17" ht="6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="11"/>
+    </row>
+    <row r="55" spans="1:22" ht="3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="13"/>
+    </row>
+    <row r="56" spans="1:22" ht="6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2038,28 +2304,29 @@
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
-    </row>
-    <row r="57" spans="1:17" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+    </row>
+    <row r="57" spans="1:22" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
-      <c r="H57" s="23"/>
-      <c r="I57" s="23"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="O57" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2076,14 +2343,20 @@
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C53:C54"/>
+  <mergeCells count="17">
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="C11:C12"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C21:C22"/>
@@ -2091,12 +2364,11 @@
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="B2:O3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:J6"/>
-    <mergeCell ref="K6:O6"/>
-    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C53:C54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
